--- a/ICD_Positive_Subset_Breakdown.xlsx
+++ b/ICD_Positive_Subset_Breakdown.xlsx
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1012</v>
+        <v>830</v>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>41.9</v>
       </c>
       <c r="D2" t="n">
         <v>1983</v>
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1482</v>
+        <v>1465</v>
       </c>
       <c r="C3" t="n">
-        <v>74.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D3" t="n">
         <v>1983</v>
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1596</v>
+        <v>1229</v>
       </c>
       <c r="C4" t="n">
-        <v>80.5</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
         <v>1983</v>
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1741</v>
+        <v>1667</v>
       </c>
       <c r="C5" t="n">
-        <v>87.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>1983</v>

--- a/ICD_Positive_Subset_Breakdown.xlsx
+++ b/ICD_Positive_Subset_Breakdown.xlsx
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>830</v>
+        <v>971</v>
       </c>
       <c r="C2" t="n">
-        <v>41.9</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
         <v>1983</v>
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1465</v>
+        <v>1300</v>
       </c>
       <c r="C3" t="n">
-        <v>73.90000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D3" t="n">
         <v>1983</v>
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1229</v>
+        <v>330</v>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>16.6</v>
       </c>
       <c r="D4" t="n">
         <v>1983</v>
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1667</v>
+        <v>1523</v>
       </c>
       <c r="C5" t="n">
-        <v>84.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D5" t="n">
         <v>1983</v>

--- a/ICD_Positive_Subset_Breakdown.xlsx
+++ b/ICD_Positive_Subset_Breakdown.xlsx
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>971</v>
+        <v>526</v>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>26.5</v>
       </c>
       <c r="D2" t="n">
         <v>1983</v>
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1300</v>
+        <v>865</v>
       </c>
       <c r="C3" t="n">
-        <v>65.59999999999999</v>
+        <v>43.6</v>
       </c>
       <c r="D3" t="n">
         <v>1983</v>
@@ -491,14 +491,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PCO2 OTHER threshold positive</t>
+          <t>PCO2 UNKNOWN threshold positive</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>16.6</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="n">
         <v>1983</v>
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1523</v>
+        <v>1077</v>
       </c>
       <c r="C5" t="n">
-        <v>76.8</v>
+        <v>54.3</v>
       </c>
       <c r="D5" t="n">
         <v>1983</v>

--- a/ICD_Positive_Subset_Breakdown.xlsx
+++ b/ICD_Positive_Subset_Breakdown.xlsx
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>526</v>
+        <v>998</v>
       </c>
       <c r="C2" t="n">
-        <v>26.5</v>
+        <v>50.3</v>
       </c>
       <c r="D2" t="n">
         <v>1983</v>
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>865</v>
+        <v>1324</v>
       </c>
       <c r="C3" t="n">
-        <v>43.6</v>
+        <v>66.8</v>
       </c>
       <c r="D3" t="n">
         <v>1983</v>
@@ -495,10 +495,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>330</v>
       </c>
       <c r="C4" t="n">
-        <v>3.5</v>
+        <v>16.6</v>
       </c>
       <c r="D4" t="n">
         <v>1983</v>
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1077</v>
+        <v>1542</v>
       </c>
       <c r="C5" t="n">
-        <v>54.3</v>
+        <v>77.8</v>
       </c>
       <c r="D5" t="n">
         <v>1983</v>
